--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>C/R</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -495,6 +495,16 @@
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BVPS Growth</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ICR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>B-Score</t>
         </is>
@@ -517,7 +527,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>92000</v>
+        <v>91500</v>
       </c>
       <c r="E2" t="n">
         <v>0.06441</v>
@@ -535,16 +545,22 @@
         <v>0.09132</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>124.81</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +580,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>112600</v>
+        <v>111400</v>
       </c>
       <c r="E3" t="n">
         <v>0.4631</v>
@@ -573,7 +589,7 @@
         <v>1.857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="H3" t="n">
         <v>0.13252</v>
@@ -582,7 +598,7 @@
         <v>0.06937</v>
       </c>
       <c r="J3" t="n">
-        <v>7.72</v>
+        <v>7.64</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -590,113 +606,131 @@
       <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>6</v>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>012330.KS</t>
+          <t>402340.KS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyundai Mobis Co.,Ltd</t>
+          <t>SK Square Co., Ltd.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>255000</v>
+        <v>99800</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07707</v>
+        <v>0.00061</v>
       </c>
       <c r="F4" t="n">
-        <v>2.23</v>
+        <v>2.184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09358</v>
+        <v>0.26416</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03069</v>
+        <v>0.12204</v>
       </c>
       <c r="J4" t="n">
-        <v>5.67</v>
+        <v>3.59</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>223.13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>402340.KS</t>
+          <t>012330.KS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SK Square Co., Ltd.</t>
+          <t>Hyundai Mobis Co.,Ltd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>102600</v>
+        <v>249500</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00061</v>
+        <v>0.07707</v>
       </c>
       <c r="F5" t="n">
-        <v>2.184</v>
+        <v>2.23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26416</v>
+        <v>0.09358</v>
       </c>
       <c r="I5" t="n">
-        <v>0.12204</v>
+        <v>0.03069</v>
       </c>
       <c r="J5" t="n">
-        <v>3.69</v>
+        <v>5.55</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>011200.KS</t>
+          <t>010120.KS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HMM Co.,Ltd</t>
+          <t>LS ELECTRIC Co., Ltd.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -705,45 +739,51 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22950</v>
+        <v>233500</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15713</v>
+        <v>0.6460399999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>7.618</v>
+        <v>1.661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>3.77</v>
       </c>
       <c r="H6" t="n">
-        <v>0.15344</v>
+        <v>0.13372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07371999999999999</v>
+        <v>0.05909</v>
       </c>
       <c r="J6" t="n">
-        <v>4.59</v>
+        <v>28.91</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>267260.KS</t>
+          <t>079550.KS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HD Hyundai Electric Co., Ltd.</t>
+          <t>LIG Nex1 Co., Ltd.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -752,72 +792,78 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>365000</v>
+        <v>402000</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23335</v>
+        <v>0.35267</v>
       </c>
       <c r="F7" t="n">
-        <v>1.381</v>
+        <v>0.844</v>
       </c>
       <c r="G7" t="n">
-        <v>8.75</v>
+        <v>7.24</v>
       </c>
       <c r="H7" t="n">
-        <v>0.38869</v>
+        <v>0.18923001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1247</v>
+        <v>0.028889999</v>
       </c>
       <c r="J7" t="n">
-        <v>26.19</v>
+        <v>39.52</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>021240.KS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>COWAY Co., Ltd.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>370000</v>
+        <v>94800</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02008</v>
+        <v>0.46334</v>
       </c>
       <c r="F8" t="n">
-        <v>27.211</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01</v>
+        <v>2.13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13084</v>
+        <v>0.19385</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01844</v>
+        <v>0.09368</v>
       </c>
       <c r="J8" t="n">
-        <v>7.59</v>
+        <v>12.09</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -825,46 +871,52 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>042700.KS</t>
+          <t>267260.KS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HANMI Semiconductor Co., Ltd.</t>
+          <t>HD Hyundai Electric Co., Ltd.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>91500</v>
+        <v>350500</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00538</v>
+        <v>0.23335</v>
       </c>
       <c r="F9" t="n">
-        <v>2.548</v>
+        <v>1.381</v>
       </c>
       <c r="G9" t="n">
-        <v>16.06</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.27429</v>
+        <v>0.38869</v>
       </c>
       <c r="I9" t="n">
-        <v>0.22251</v>
+        <v>0.1247</v>
       </c>
       <c r="J9" t="n">
-        <v>57.58</v>
+        <v>25.15</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -872,19 +924,25 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>003550.KS</t>
+          <t>042700.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>HANMI Semiconductor Co., Ltd.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -893,34 +951,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68600</v>
+        <v>85700</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02465</v>
+        <v>0.00538</v>
       </c>
       <c r="F10" t="n">
-        <v>2.256</v>
+        <v>2.548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>15.04</v>
       </c>
       <c r="H10" t="n">
-        <v>0.028670002</v>
+        <v>0.27429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01948</v>
+        <v>0.22251</v>
       </c>
       <c r="J10" t="n">
-        <v>18.48</v>
+        <v>53.93</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2215.54</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +1004,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>187800</v>
+        <v>185400</v>
       </c>
       <c r="E11" t="n">
         <v>0.16158</v>
@@ -949,7 +1013,7 @@
         <v>1.539</v>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H11" t="n">
         <v>0.07541</v>
@@ -958,7 +1022,7 @@
         <v>0.03348</v>
       </c>
       <c r="J11" t="n">
-        <v>14.79</v>
+        <v>14.6</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -966,46 +1030,52 @@
       <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>90700</v>
+        <v>55800</v>
       </c>
       <c r="E12" t="n">
-        <v>0.32141</v>
+        <v>0.02741</v>
       </c>
       <c r="F12" t="n">
-        <v>1.644</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>0.96</v>
       </c>
       <c r="H12" t="n">
-        <v>0.50724</v>
+        <v>0.0921</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06841999999999999</v>
+        <v>0.04156</v>
       </c>
       <c r="J12" t="n">
-        <v>29.51</v>
+        <v>11.27</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1013,140 +1083,158 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>021240.KS</t>
+          <t>003555.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COWAY Co., Ltd.</t>
+          <t>LG Corp.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>97700</v>
+        <v>56900</v>
       </c>
       <c r="E13" t="n">
-        <v>0.46334</v>
+        <v>0.02465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9429999999999999</v>
+        <v>2.256</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19385</v>
+        <v>0.028670002</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09368</v>
+        <v>0.01948</v>
       </c>
       <c r="J13" t="n">
-        <v>12.46</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>000105.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yuhan Corporation</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>97200</v>
+        <v>199400</v>
       </c>
       <c r="E14" t="n">
-        <v>0.14161</v>
+        <v>0.28651</v>
       </c>
       <c r="F14" t="n">
-        <v>2.197</v>
+        <v>3.764</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02595</v>
+        <v>0.37954</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01192</v>
+        <v>0.15418</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>011200.KS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>HMM Co.,Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38850</v>
+        <v>22550</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08265</v>
+        <v>0.15713</v>
       </c>
       <c r="F15" t="n">
-        <v>1.583</v>
+        <v>7.618</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11798</v>
+        <v>0.15344</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02175</v>
+        <v>0.07371999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1154,93 +1242,105 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>3</v>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>207940.KS</t>
+          <t>064350.KS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Samsung Biologics Co.,Ltd.</t>
+          <t>Hyundai Rotem Company</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1002000</v>
+        <v>109000</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13629</v>
+        <v>0.10907</v>
       </c>
       <c r="F16" t="n">
-        <v>1.432</v>
+        <v>2.734</v>
       </c>
       <c r="G16" t="n">
-        <v>6.54</v>
+        <v>5.82</v>
       </c>
       <c r="H16" t="n">
-        <v>0.104490004</v>
+        <v>0.264</v>
       </c>
       <c r="I16" t="n">
-        <v>0.049429998</v>
+        <v>0.07427</v>
       </c>
       <c r="J16" t="n">
-        <v>65.83</v>
+        <v>29.24</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="n">
-        <v>3</v>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>259960.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>KRAFTON, Inc.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>204500</v>
+        <v>370500</v>
       </c>
       <c r="E17" t="n">
-        <v>0.28651</v>
+        <v>0.03306</v>
       </c>
       <c r="F17" t="n">
-        <v>3.764</v>
+        <v>6.376</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>2.47</v>
       </c>
       <c r="H17" t="n">
-        <v>0.37954</v>
+        <v>0.21030001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.15418</v>
+        <v>0.10288999</v>
       </c>
       <c r="J17" t="n">
-        <v>7.12</v>
+        <v>12.96</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1248,93 +1348,105 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>125.03</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>009540.KS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56800</v>
+        <v>288000</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02741</v>
+        <v>0.13418</v>
       </c>
       <c r="F18" t="n">
-        <v>9.781000000000001</v>
+        <v>1.054</v>
       </c>
       <c r="G18" t="n">
-        <v>0.98</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0921</v>
+        <v>0.10967</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04156</v>
+        <v>0.02582</v>
       </c>
       <c r="J18" t="n">
-        <v>11.47</v>
+        <v>17.37</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>3</v>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>068270.KS</t>
+          <t>028260.KS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Celltrion, Inc.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>154000</v>
+        <v>122400</v>
       </c>
       <c r="E19" t="n">
-        <v>0.12473</v>
+        <v>0.12377</v>
       </c>
       <c r="F19" t="n">
-        <v>1.752</v>
+        <v>1.368</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>0.64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02414</v>
+        <v>0.07185999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.015</v>
+        <v>0.02898</v>
       </c>
       <c r="J19" t="n">
-        <v>78.73</v>
+        <v>8.98</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1342,149 +1454,173 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>207940.KS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>Samsung Biologics Co.,Ltd.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1180000</v>
+        <v>1028000</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45037</v>
+        <v>0.13629</v>
       </c>
       <c r="F20" t="n">
-        <v>1.374</v>
+        <v>1.432</v>
       </c>
       <c r="G20" t="n">
-        <v>10.77</v>
+        <v>6.71</v>
       </c>
       <c r="H20" t="n">
-        <v>0.38618</v>
+        <v>0.104490004</v>
       </c>
       <c r="I20" t="n">
-        <v>0.15585</v>
+        <v>0.049429998</v>
       </c>
       <c r="J20" t="n">
-        <v>32.36</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="n">
-        <v>3</v>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>079550.KS</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co., Ltd.</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>405000</v>
+        <v>89200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.35267</v>
+        <v>0.32141</v>
       </c>
       <c r="F21" t="n">
-        <v>0.844</v>
+        <v>1.644</v>
       </c>
       <c r="G21" t="n">
-        <v>7.29</v>
+        <v>12.79</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18923001</v>
+        <v>0.50724</v>
       </c>
       <c r="I21" t="n">
-        <v>0.028889999</v>
+        <v>0.06841999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>39.81</v>
+        <v>29.02</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="n">
-        <v>3</v>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>003555.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57000</v>
+        <v>1152000</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02465</v>
+        <v>0.45037</v>
       </c>
       <c r="F22" t="n">
-        <v>2.256</v>
+        <v>1.374</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="H22" t="n">
-        <v>0.028670002</v>
+        <v>0.38618</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01948</v>
+        <v>0.15585</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>31.59</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1504,7 +1640,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122600</v>
+        <v>120700</v>
       </c>
       <c r="E23" t="n">
         <v>0.18146</v>
@@ -1513,7 +1649,7 @@
         <v>1.927</v>
       </c>
       <c r="G23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="H23" t="n">
         <v>0.07802000000000001</v>
@@ -1522,7 +1658,7 @@
         <v>0.03758</v>
       </c>
       <c r="J23" t="n">
-        <v>13.64</v>
+        <v>13.43</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1530,140 +1666,158 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="n">
-        <v>3</v>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>064350.KS</t>
+          <t>068270.KS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hyundai Rotem Company</t>
+          <t>Celltrion, Inc.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>113900</v>
+        <v>154000</v>
       </c>
       <c r="E24" t="n">
-        <v>0.10907</v>
+        <v>0.12473</v>
       </c>
       <c r="F24" t="n">
-        <v>2.734</v>
+        <v>1.752</v>
       </c>
       <c r="G24" t="n">
-        <v>6.08</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>0.264</v>
+        <v>0.02414</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07427</v>
+        <v>0.015</v>
       </c>
       <c r="J24" t="n">
-        <v>30.55</v>
+        <v>78.73</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="n">
-        <v>3</v>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>000815.KS</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>276500</v>
+        <v>121300</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02008</v>
+        <v>0.08265</v>
       </c>
       <c r="F25" t="n">
-        <v>27.211</v>
+        <v>1.583</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13084</v>
+        <v>0.11798</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01844</v>
+        <v>0.02175</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005490.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POSCO Holdings Inc.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>247500</v>
+        <v>38300</v>
       </c>
       <c r="E26" t="n">
-        <v>0.44088</v>
+        <v>0.08265</v>
       </c>
       <c r="F26" t="n">
-        <v>1.888</v>
+        <v>1.583</v>
       </c>
       <c r="G26" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0112</v>
+        <v>0.11798</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01314</v>
+        <v>0.02175</v>
       </c>
       <c r="J26" t="n">
-        <v>17.13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1671,19 +1825,25 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" t="n">
-        <v>3</v>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>028260.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1692,119 +1852,131 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>123900</v>
+        <v>165300</v>
       </c>
       <c r="E27" t="n">
-        <v>0.12377</v>
+        <v>0.02657</v>
       </c>
       <c r="F27" t="n">
-        <v>1.368</v>
+        <v>3.139</v>
       </c>
       <c r="G27" t="n">
-        <v>0.65</v>
+        <v>9.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07185999999999999</v>
+        <v>0.44981</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02898</v>
+        <v>0.1878</v>
       </c>
       <c r="J27" t="n">
-        <v>9.09</v>
+        <v>31.17</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>3</v>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>009540.KS</t>
+          <t>005935.KS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>287000</v>
+        <v>46100</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13418</v>
+        <v>0.02741</v>
       </c>
       <c r="F28" t="n">
-        <v>1.054</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.10967</v>
+        <v>0.0921</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02582</v>
+        <v>0.04156</v>
       </c>
       <c r="J28" t="n">
-        <v>17.31</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>005490.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>POSCO Holdings Inc.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>123100</v>
+        <v>245500</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08265</v>
+        <v>0.44088</v>
       </c>
       <c r="F29" t="n">
-        <v>1.583</v>
+        <v>1.888</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>0.34</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11798</v>
+        <v>0.0112</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02175</v>
+        <v>0.01314</v>
       </c>
       <c r="J29" t="n">
-        <v>14.31</v>
+        <v>16.99</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1812,19 +1984,25 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>3</v>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>010120.KS</t>
+          <t>02826K.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LS ELECTRIC Co., Ltd.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1833,25 +2011,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>243000</v>
+        <v>92100</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6460399999999999</v>
+        <v>0.12377</v>
       </c>
       <c r="F30" t="n">
-        <v>1.661</v>
+        <v>1.368</v>
       </c>
       <c r="G30" t="n">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13372</v>
+        <v>0.07185999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05909</v>
+        <v>0.02898</v>
       </c>
       <c r="J30" t="n">
-        <v>30.08</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1859,46 +2037,52 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" t="n">
-        <v>3</v>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>009155.KS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>163000</v>
+        <v>54900</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02657</v>
+        <v>0.18146</v>
       </c>
       <c r="F31" t="n">
-        <v>3.139</v>
+        <v>1.927</v>
       </c>
       <c r="G31" t="n">
-        <v>9.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.44981</v>
+        <v>0.07802000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1878</v>
+        <v>0.03758</v>
       </c>
       <c r="J31" t="n">
-        <v>30.73</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1906,46 +2090,52 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="n">
-        <v>3</v>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>259960.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KRAFTON, Inc.</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>382500</v>
+        <v>45300</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03306</v>
+        <v>0.19582</v>
       </c>
       <c r="F32" t="n">
-        <v>6.376</v>
+        <v>0.848</v>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.21030001</v>
+        <v>0.20879999</v>
       </c>
       <c r="I32" t="n">
-        <v>0.10288999</v>
+        <v>0.02219</v>
       </c>
       <c r="J32" t="n">
-        <v>13.38</v>
+        <v>18.7</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1953,19 +2143,25 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="M32" t="n">
-        <v>3</v>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>329180.KS</t>
+          <t>012450.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
+          <t>Hanwha Aerospace Co., Ltd.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1974,119 +2170,131 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>419500</v>
+        <v>839000</v>
       </c>
       <c r="E33" t="n">
-        <v>0.20759</v>
+        <v>0.9405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.882</v>
+        <v>0.895</v>
       </c>
       <c r="G33" t="n">
-        <v>6.53</v>
+        <v>7.64</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11391</v>
+        <v>0.31283</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0239</v>
+        <v>0.03179</v>
       </c>
       <c r="J33" t="n">
-        <v>59.92</v>
+        <v>17.96</v>
       </c>
       <c r="K33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>2</v>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>012450.KS</t>
+          <t>352820.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
+          <t>HYBE Co., Ltd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>841000</v>
+        <v>270000</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9405</v>
+        <v>0.31056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.895</v>
+        <v>2.151</v>
       </c>
       <c r="G34" t="n">
-        <v>7.65</v>
+        <v>3.49</v>
       </c>
       <c r="H34" t="n">
-        <v>0.31283</v>
+        <v>-0.00104</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03179</v>
+        <v>0.02125</v>
       </c>
       <c r="J34" t="n">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
-        <v>2</v>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>005935.KS</t>
+          <t>017670.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>SK Telecom Co., Ltd.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>46700</v>
+        <v>51200</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02741</v>
+        <v>0.57792</v>
       </c>
       <c r="F35" t="n">
-        <v>9.781000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0921</v>
+        <v>0.11368</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04156</v>
+        <v>0.03808</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2094,46 +2302,52 @@
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>2</v>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>006800.KS</t>
+          <t>329180.KS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13060</v>
+        <v>423500</v>
       </c>
       <c r="E36" t="n">
-        <v>7.05972</v>
+        <v>0.20759</v>
       </c>
       <c r="F36" t="n">
-        <v>1.326</v>
+        <v>0.882</v>
       </c>
       <c r="G36" t="n">
-        <v>0.63</v>
+        <v>6.59</v>
       </c>
       <c r="H36" t="n">
-        <v>0.085760005</v>
+        <v>0.11391</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0075199995</v>
+        <v>0.0239</v>
       </c>
       <c r="J36" t="n">
-        <v>8.449999999999999</v>
+        <v>60.49</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2141,46 +2355,52 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>2</v>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>009155.KS</t>
+          <t>003490.KS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>55700</v>
+        <v>22300</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18146</v>
+        <v>1.77192</v>
       </c>
       <c r="F37" t="n">
-        <v>1.927</v>
+        <v>0.625</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="H37" t="n">
-        <v>0.07802000000000001</v>
+        <v>0.13301</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03758</v>
+        <v>0.03375</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2188,19 +2408,25 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
-        <v>2</v>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>006400.KS</t>
+          <t>047050.KS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Samsung SDI Co., Ltd.</t>
+          <t>Posco International Corporation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2209,25 +2435,25 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>164700</v>
+        <v>48600</v>
       </c>
       <c r="E38" t="n">
-        <v>0.54954</v>
+        <v>0.8582299999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.916</v>
+        <v>1.221</v>
       </c>
       <c r="G38" t="n">
-        <v>0.57</v>
+        <v>1.27</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00087</v>
+        <v>0.07205</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.00775</v>
+        <v>0.04034</v>
       </c>
       <c r="J38" t="n">
-        <v>18.77</v>
+        <v>16.1</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2235,140 +2461,158 @@
       <c r="L38" t="b">
         <v>1</v>
       </c>
-      <c r="M38" t="n">
-        <v>2</v>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>352820.KS</t>
+          <t>000100.KS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HYBE Co., Ltd.</t>
+          <t>Yuhan Corporation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>274500</v>
+        <v>105700</v>
       </c>
       <c r="E39" t="n">
-        <v>0.31056</v>
+        <v>0.14161</v>
       </c>
       <c r="F39" t="n">
-        <v>2.151</v>
+        <v>2.197</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.77</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.00104</v>
+        <v>0.02595</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02125</v>
+        <v>0.01192</v>
       </c>
       <c r="J39" t="n">
-        <v>1220</v>
+        <v>112.09</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>02826K.KS</t>
+          <t>180640.KS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>92500</v>
+        <v>114700</v>
       </c>
       <c r="E40" t="n">
-        <v>0.12377</v>
+        <v>0.19537</v>
       </c>
       <c r="F40" t="n">
-        <v>1.368</v>
+        <v>0.802</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07185999999999999</v>
+        <v>0.16610001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02898</v>
+        <v>0.00784</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" t="n">
-        <v>2</v>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>017670.KS</t>
+          <t>18064K.KS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SK Telecom Co., Ltd.</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52200</v>
+        <v>36750</v>
       </c>
       <c r="E41" t="n">
-        <v>0.57792</v>
+        <v>0.19537</v>
       </c>
       <c r="F41" t="n">
-        <v>0.879</v>
+        <v>0.802</v>
       </c>
       <c r="G41" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11368</v>
+        <v>0.16610001</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03808</v>
+        <v>0.00784</v>
       </c>
       <c r="J41" t="n">
-        <v>9.029999999999999</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2376,19 +2620,25 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>2</v>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>035720.KS</t>
+          <t>030200.KS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kakao Corp.</t>
+          <t>KT Corporation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2397,72 +2647,78 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>37400</v>
+        <v>52000</v>
       </c>
       <c r="E42" t="n">
-        <v>0.30354</v>
+        <v>0.64346</v>
       </c>
       <c r="F42" t="n">
-        <v>1.255</v>
+        <v>1.027</v>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>0.79</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01163</v>
+        <v>0.022820001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01097</v>
+        <v>0.01196</v>
       </c>
       <c r="J42" t="n">
-        <v>296.83</v>
+        <v>27.2</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>73.66</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>015760.KS</t>
+          <t>000105.KS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Korea Electric Power Corporation</t>
+          <t>Yuhan Corporation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>28000</v>
+        <v>97000</v>
       </c>
       <c r="E43" t="n">
-        <v>3.29545</v>
+        <v>0.14161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.457</v>
+        <v>2.197</v>
       </c>
       <c r="G43" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.092130005</v>
+        <v>0.02595</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02149</v>
+        <v>0.01192</v>
       </c>
       <c r="J43" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2470,46 +2726,52 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>2</v>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>180640.KS</t>
+          <t>047810.KS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>Korea Aerospace Industries, Ltd.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>122700</v>
+        <v>89400</v>
       </c>
       <c r="E44" t="n">
-        <v>0.19537</v>
+        <v>0.62214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.802</v>
+        <v>1.107</v>
       </c>
       <c r="G44" t="n">
-        <v>2.57</v>
+        <v>5.11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.16610001</v>
+        <v>0.102110006</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00784</v>
+        <v>0.01984</v>
       </c>
       <c r="J44" t="n">
-        <v>16.51</v>
+        <v>50.65</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2517,66 +2779,78 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="M44" t="n">
-        <v>2</v>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>000100.KS</t>
+          <t>035720.KS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Yuhan Corporation</t>
+          <t>Kakao Corp.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>106200</v>
+        <v>36450</v>
       </c>
       <c r="E45" t="n">
-        <v>0.14161</v>
+        <v>0.30354</v>
       </c>
       <c r="F45" t="n">
-        <v>2.197</v>
+        <v>1.255</v>
       </c>
       <c r="G45" t="n">
-        <v>3.79</v>
+        <v>1.58</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02595</v>
+        <v>-0.01163</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01192</v>
+        <v>0.01097</v>
       </c>
       <c r="J45" t="n">
-        <v>112.62</v>
+        <v>289.29</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>006400.KS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>Samsung SDI Co., Ltd.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2585,69 +2859,75 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47350</v>
+        <v>169400</v>
       </c>
       <c r="E46" t="n">
-        <v>0.19582</v>
+        <v>0.54954</v>
       </c>
       <c r="F46" t="n">
-        <v>0.848</v>
+        <v>0.916</v>
       </c>
       <c r="G46" t="n">
-        <v>3.56</v>
+        <v>0.59</v>
       </c>
       <c r="H46" t="n">
-        <v>0.20879999</v>
+        <v>0.00087</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02219</v>
+        <v>-0.00775</v>
       </c>
       <c r="J46" t="n">
-        <v>19.55</v>
+        <v>19.31</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>18064K.KS</t>
+          <t>006405.KS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>Samsung SDI Co., Ltd.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45500</v>
+        <v>103000</v>
       </c>
       <c r="E47" t="n">
-        <v>0.19537</v>
+        <v>0.54954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.802</v>
+        <v>0.916</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.16610001</v>
+        <v>0.00087</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00784</v>
+        <v>-0.00775</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2656,21 +2936,27 @@
         <v>0</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>003490.KS</t>
+          <t>010140.KS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>Samsung Heavy Industries Co., Ltd.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2679,116 +2965,128 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22350</v>
+        <v>14300</v>
       </c>
       <c r="E48" t="n">
-        <v>1.77192</v>
+        <v>0.94511</v>
       </c>
       <c r="F48" t="n">
-        <v>0.625</v>
+        <v>0.779</v>
       </c>
       <c r="G48" t="n">
-        <v>0.79</v>
+        <v>3.22</v>
       </c>
       <c r="H48" t="n">
-        <v>0.13301</v>
+        <v>0.01505</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03375</v>
+        <v>0.01916</v>
       </c>
       <c r="J48" t="n">
-        <v>6.27</v>
+        <v>190.67</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>047050.KS</t>
+          <t>015760.KS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Posco International Corporation</t>
+          <t>Korea Electric Power Corporation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>46850</v>
+        <v>28400</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8582299999999999</v>
+        <v>3.29545</v>
       </c>
       <c r="F49" t="n">
-        <v>1.221</v>
+        <v>0.457</v>
       </c>
       <c r="G49" t="n">
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07205</v>
+        <v>0.092130005</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04034</v>
+        <v>0.02149</v>
       </c>
       <c r="J49" t="n">
-        <v>15.52</v>
+        <v>5.22</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00680K.KS</t>
+          <t>003495.KS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5140</v>
+        <v>22650</v>
       </c>
       <c r="E50" t="n">
-        <v>7.05972</v>
+        <v>1.77192</v>
       </c>
       <c r="F50" t="n">
-        <v>1.326</v>
+        <v>0.625</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.085760005</v>
+        <v>0.13301</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0075199995</v>
+        <v>0.03375</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2799,19 +3097,25 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>047810.KS</t>
+          <t>010620.KS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Korea Aerospace Industries, Ltd.</t>
+          <t>Hd Hyundai Mipo Co.,Ltd.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2820,25 +3124,25 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>90100</v>
+        <v>177000</v>
       </c>
       <c r="E51" t="n">
-        <v>0.62214</v>
+        <v>0.1214</v>
       </c>
       <c r="F51" t="n">
-        <v>1.107</v>
+        <v>1.03</v>
       </c>
       <c r="G51" t="n">
-        <v>5.15</v>
+        <v>3.45</v>
       </c>
       <c r="H51" t="n">
-        <v>0.102110006</v>
+        <v>0.05495</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01984</v>
+        <v>0.010989999</v>
       </c>
       <c r="J51" t="n">
-        <v>51.05</v>
+        <v>66.89</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -2846,43 +3150,49 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>051910.KS</t>
+          <t>034730.KS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG Chem, Ltd.</t>
+          <t>SK Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>193600</v>
+        <v>138700</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5703900000000001</v>
+        <v>1.09823</v>
       </c>
       <c r="F52" t="n">
-        <v>1.319</v>
+        <v>0.899</v>
       </c>
       <c r="G52" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0074</v>
+        <v>0.00441</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00669</v>
+        <v>0.00611</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2893,46 +3203,52 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>032830.KS</t>
+          <t>267250.KS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Samsung Life Insurance Co., Ltd.</t>
+          <t>HD Hyundai Co., Ltd.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>84300</v>
+        <v>82900</v>
       </c>
       <c r="E53" t="n">
-        <v>0.72934</v>
+        <v>0.64408</v>
       </c>
       <c r="F53" t="n">
-        <v>42.656</v>
+        <v>1.099</v>
       </c>
       <c r="G53" t="n">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05865</v>
+        <v>0.077800006</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00316</v>
+        <v>0.02619</v>
       </c>
       <c r="J53" t="n">
-        <v>7.19</v>
+        <v>11.51</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2940,46 +3256,52 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>042660.KS</t>
+          <t>009830.KS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hanwha Ocean Co., Ltd.</t>
+          <t>Hanwha Solutions Corporation</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>81200</v>
+        <v>39050</v>
       </c>
       <c r="E54" t="n">
-        <v>1.10924</v>
+        <v>1.22585</v>
       </c>
       <c r="F54" t="n">
-        <v>1.087</v>
+        <v>0.921</v>
       </c>
       <c r="G54" t="n">
-        <v>5.12</v>
+        <v>0.71</v>
       </c>
       <c r="H54" t="n">
-        <v>0.11514</v>
+        <v>-0.111549996</v>
       </c>
       <c r="I54" t="n">
-        <v>0.009380001000000001</v>
+        <v>-0.0068699997</v>
       </c>
       <c r="J54" t="n">
-        <v>49.27</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2987,43 +3309,49 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>003495.KS</t>
+          <t>096770.KS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>SK Innovation Co., Ltd.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23050</v>
+        <v>87700</v>
       </c>
       <c r="E55" t="n">
-        <v>1.77192</v>
+        <v>1.18864</v>
       </c>
       <c r="F55" t="n">
-        <v>0.625</v>
+        <v>0.962</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H55" t="n">
-        <v>0.13301</v>
+        <v>-0.06811</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03375</v>
+        <v>0.00014999999</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3034,43 +3362,49 @@
       <c r="L55" t="b">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>006405.KS</t>
+          <t>051910.KS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung SDI Co., Ltd.</t>
+          <t>LG Chem, Ltd.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>101400</v>
+        <v>195800</v>
       </c>
       <c r="E56" t="n">
-        <v>0.54954</v>
+        <v>0.5703900000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.916</v>
+        <v>1.319</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00087</v>
+        <v>-0.0074</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.00775</v>
+        <v>0.00669</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3079,48 +3413,54 @@
         <v>0</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>096770.KS</t>
+          <t>010130.KS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SK Innovation Co., Ltd.</t>
+          <t>Korea Zinc Company, Ltd.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>87400</v>
+        <v>794000</v>
       </c>
       <c r="E57" t="n">
-        <v>1.18864</v>
+        <v>0.65461</v>
       </c>
       <c r="F57" t="n">
-        <v>0.962</v>
+        <v>1.189</v>
       </c>
       <c r="G57" t="n">
-        <v>0.53</v>
+        <v>1.97</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.06811</v>
+        <v>0.0226</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00014999999</v>
+        <v>0.03373</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3128,19 +3468,25 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="O57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>010140.KS</t>
+          <t>373220.KS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samsung Heavy Industries Co., Ltd.</t>
+          <t>LG Energy Solution, Ltd.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3149,72 +3495,78 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14550</v>
+        <v>291500</v>
       </c>
       <c r="E58" t="n">
-        <v>0.94511</v>
+        <v>0.56324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.779</v>
+        <v>4.653</v>
       </c>
       <c r="G58" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01505</v>
+        <v>0.012200001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01916</v>
+        <v>0.00587</v>
       </c>
       <c r="J58" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>030200.KS</t>
+          <t>042660.KS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KT Corporation</t>
+          <t>Hanwha Ocean Co., Ltd.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51400</v>
+        <v>78900</v>
       </c>
       <c r="E59" t="n">
-        <v>0.64346</v>
+        <v>1.10924</v>
       </c>
       <c r="F59" t="n">
-        <v>1.027</v>
+        <v>1.087</v>
       </c>
       <c r="G59" t="n">
-        <v>0.78</v>
+        <v>4.98</v>
       </c>
       <c r="H59" t="n">
-        <v>0.022820001</v>
+        <v>0.11514</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01196</v>
+        <v>0.009380001000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>26.88</v>
+        <v>47.88</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3222,46 +3574,52 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>267250.KS</t>
+          <t>034020.KS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HD Hyundai Co., Ltd.</t>
+          <t>Doosan Enerbility Co., Ltd.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>82200</v>
+        <v>34600</v>
       </c>
       <c r="E60" t="n">
-        <v>0.64408</v>
+        <v>0.5464</v>
       </c>
       <c r="F60" t="n">
-        <v>1.099</v>
+        <v>1.123</v>
       </c>
       <c r="G60" t="n">
-        <v>0.67</v>
+        <v>2.96</v>
       </c>
       <c r="H60" t="n">
-        <v>0.077800006</v>
+        <v>0.03508</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02619</v>
+        <v>0.02434</v>
       </c>
       <c r="J60" t="n">
-        <v>11.41</v>
+        <v>198.85</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3269,43 +3627,49 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>006805.KS</t>
+          <t>009835.KS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>Hanwha Solutions Corporation</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5630</v>
+        <v>30950</v>
       </c>
       <c r="E61" t="n">
-        <v>7.05972</v>
+        <v>1.22585</v>
       </c>
       <c r="F61" t="n">
-        <v>1.326</v>
+        <v>0.921</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.085760005</v>
+        <v>-0.111549996</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0075199995</v>
+        <v>-0.0068699997</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3316,43 +3680,49 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="O61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>009830.KS</t>
+          <t>000157.KS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hanwha Solutions Corporation</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>38400</v>
+        <v>377500</v>
       </c>
       <c r="E62" t="n">
-        <v>1.22585</v>
+        <v>0.7641</v>
       </c>
       <c r="F62" t="n">
-        <v>0.921</v>
+        <v>1.08</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.111549996</v>
+        <v>0.02617</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.0068699997</v>
+        <v>0.02093</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3363,19 +3733,25 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>010620.KS</t>
+          <t>003670.KS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hd Hyundai Mipo Co.,Ltd.</t>
+          <t>Posco Future M Co., Ltd.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3384,25 +3760,25 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>173800</v>
+        <v>115000</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1214</v>
+        <v>1.1014</v>
       </c>
       <c r="F63" t="n">
-        <v>1.03</v>
+        <v>1.345</v>
       </c>
       <c r="G63" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>0.05495</v>
+        <v>-0.078</v>
       </c>
       <c r="I63" t="n">
-        <v>0.010989999</v>
+        <v>6.0000002e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>65.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -3410,14 +3786,20 @@
       <c r="L63" t="b">
         <v>0</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>034730.KS</t>
+          <t>03473K.KS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3431,7 +3813,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>137100</v>
+        <v>122500</v>
       </c>
       <c r="E64" t="n">
         <v>1.09823</v>
@@ -3440,7 +3822,7 @@
         <v>0.899</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0.00441</v>
@@ -3457,19 +3839,25 @@
       <c r="L64" t="b">
         <v>0</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>373220.KS</t>
+          <t>000155.KS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG Energy Solution, Ltd.</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3478,22 +3866,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>290500</v>
+        <v>259500</v>
       </c>
       <c r="E65" t="n">
-        <v>0.56324</v>
+        <v>0.7641</v>
       </c>
       <c r="F65" t="n">
-        <v>4.653</v>
+        <v>1.08</v>
       </c>
       <c r="G65" t="n">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.012200001</v>
+        <v>0.02617</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00587</v>
+        <v>0.02093</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3504,19 +3892,25 @@
       <c r="L65" t="b">
         <v>0</v>
       </c>
-      <c r="M65" t="n">
-        <v>0</v>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>034020.KS</t>
+          <t>000150.KS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Doosan Enerbility Co., Ltd.</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3525,25 +3919,25 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>34300</v>
+        <v>393000</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5464</v>
+        <v>0.7641</v>
       </c>
       <c r="F66" t="n">
-        <v>1.123</v>
+        <v>1.08</v>
       </c>
       <c r="G66" t="n">
-        <v>2.93</v>
+        <v>4.73</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03508</v>
+        <v>0.02617</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02434</v>
+        <v>0.02093</v>
       </c>
       <c r="J66" t="n">
-        <v>197.13</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3551,46 +3945,52 @@
       <c r="L66" t="b">
         <v>0</v>
       </c>
-      <c r="M66" t="n">
-        <v>0</v>
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>010130.KS</t>
+          <t>096775.KS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Korea Zinc Company, Ltd.</t>
+          <t>SK Innovation Co., Ltd.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>821000</v>
+        <v>62100</v>
       </c>
       <c r="E67" t="n">
-        <v>0.65461</v>
+        <v>1.18864</v>
       </c>
       <c r="F67" t="n">
-        <v>1.189</v>
+        <v>0.962</v>
       </c>
       <c r="G67" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0226</v>
+        <v>-0.06811</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03373</v>
+        <v>0.00014999999</v>
       </c>
       <c r="J67" t="n">
-        <v>86.53</v>
+        <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3598,7 +3998,13 @@
       <c r="L67" t="b">
         <v>0</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +4025,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>99000</v>
+        <v>99700</v>
       </c>
       <c r="E68" t="n">
         <v>0.5703900000000001</v>
@@ -3645,336 +4051,13 @@
       <c r="L68" t="b">
         <v>0</v>
       </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>096775.KS</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SK Innovation Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>62100</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.18864</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-0.06811</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.00014999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>003670.KS</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Posco Future M Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>111000</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.1014</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.345</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-0.078</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6.0000002e-05</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>03473K.KS</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SK Inc.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>122700</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.09823</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.00441</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.00611</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>000155.KS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Doosan Corporation</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>252500</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.7641</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>000150.KS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Doosan Corporation</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>404500</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.7641</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>009835.KS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Hanwha Solutions Corporation</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>29900</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.22585</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-0.111549996</v>
-      </c>
-      <c r="I74" t="n">
-        <v>-0.0068699997</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>000157.KS</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Doosan Corporation</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>377500</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.7641</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
